--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:14+00:00</t>
+    <t>2025-05-02T13:48:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T13:48:57+00:00</t>
+    <t>2025-05-02T14:15:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
     <t>AuthorInstitution.10</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {elementdefinition-identifier}
+    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
 </t>
   </si>
   <si>
@@ -603,7 +603,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="32.609375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.6875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T14:15:44+00:00</t>
+    <t>2025-05-02T17:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="105">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-02T17:24:18+00:00</t>
+    <t>2025-05-03T11:17:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,8 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
+    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. 
+Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -229,6 +230,9 @@
   </si>
   <si>
     <t>Constraint(s)</t>
+  </si>
+  <si>
+    <t>Mapping: null</t>
   </si>
   <si>
     <t/>
@@ -247,7 +251,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>AuthorInstitution.1</t>
+    <t>AuthorInstitution.XON1</t>
   </si>
   <si>
     <t>1</t>
@@ -260,19 +264,66 @@
     <t>Nom de la structure</t>
   </si>
   <si>
-    <t>AuthorInstitution.6</t>
+    <t xml:space="preserve">NOM EDITEUR </t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/representedOrganization/name</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>AuthorInstitution.XON6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base
+</t>
   </si>
   <si>
     <t>Autorité d’affectation</t>
   </si>
   <si>
-    <t>AuthorInstitution.7</t>
+    <t>AuthorInstitution.XON6.composant1</t>
+  </si>
+  <si>
+    <t>Vide, pas de valeur</t>
+  </si>
+  <si>
+    <t>AuthorInstitution.XON6.composant2</t>
+  </si>
+  <si>
+    <t>Valeur de Universal ID</t>
+  </si>
+  <si>
+    <t>1.3.2 (OID SIRENE)</t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/representedOrganization/id@root</t>
+  </si>
+  <si>
+    <t>AuthorInstitution.XON6.composant3</t>
+  </si>
+  <si>
+    <t>Valeur de Universal ID type (ID)</t>
+  </si>
+  <si>
+    <t>AuthorInstitution.XON7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
   </si>
   <si>
     <t>Type d’identifiant</t>
   </si>
   <si>
-    <t>AuthorInstitution.10</t>
+    <t>SIREN</t>
+  </si>
+  <si>
+    <t>Valeur ne provenant pas de l’en-tête CDA</t>
+  </si>
+  <si>
+    <t>AuthorInstitution.XON10</t>
   </si>
   <si>
     <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
@@ -280,6 +331,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Identifiant de la structure (Struct_IdNat)</t>
+  </si>
+  <si>
+    <t>author/assignedAuthor/representedOrganization/id@extension</t>
   </si>
 </sst>
 </file>
@@ -584,7 +638,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AL9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -593,8 +647,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="16.640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="16.640625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="29.33984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.33984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -612,7 +666,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.74609375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -624,10 +678,12 @@
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="16.640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.33984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
+    <col min="37" max="37" width="50.30859375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="14.140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -739,6 +795,12 @@
       <c r="AJ1" t="s" s="1">
         <v>71</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>72</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
@@ -749,26 +811,26 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -779,465 +841,813 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AL3" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AL4" t="s" s="2">
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL5" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL6" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL7" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AL8" t="s" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="S9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="T9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="U9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="W9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="X9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Y9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="Z9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AA9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AE9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AF9" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AL9" t="s" s="2">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T11:17:55+00:00</t>
+    <t>2025-05-03T14:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:02:53+00:00</t>
+    <t>2025-05-03T14:33:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T14:33:40+00:00</t>
+    <t>2025-05-03T15:10:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:10:00+00:00</t>
+    <t>2025-05-03T15:16:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T15:16:04+00:00</t>
+    <t>2025-05-03T16:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. 
+    <t xml:space="preserve">Cette métadonnée représente la structure émettrice du lot de soumission. 
 Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
   </si>
   <si>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-03T16:40:31+00:00</t>
+    <t>2025-05-05T07:27:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:27:11+00:00</t>
+    <t>2025-05-05T07:53:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T07:53:58+00:00</t>
+    <t>2025-05-05T08:00:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="106">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T08:00:51+00:00</t>
+    <t>2025-05-05T11:54:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">Cette métadonnée représente la structure émettrice du lot de soumission. 
+    <t xml:space="preserve">Cet attribut représente la structure de l’auteur. 
 Pour les documents d’expression personnelle du patient, cette métadonnée est absente, cela signifie que l’élément XML &lt;rim:Slot name='authorInstitution'&gt; n’est pas transmis. </t>
   </si>
   <si>
@@ -264,7 +264,7 @@
     <t>Nom de la structure</t>
   </si>
   <si>
-    <t xml:space="preserve">NOM EDITEUR </t>
+    <t>Groupe Pitié Salpêtrière</t>
   </si>
   <si>
     <t>author/assignedAuthor/representedOrganization/name</t>
@@ -283,6 +283,9 @@
     <t>Autorité d’affectation</t>
   </si>
   <si>
+    <t xml:space="preserve">Identifiant de l’organisme gérant l’identifiant de la structure. Cet identifiant, au format HL7 v.2.5 est constitué de trois sous-composants qui prennent les valeurs suivantes. </t>
+  </si>
+  <si>
     <t>AuthorInstitution.XON6.composant1</t>
   </si>
   <si>
@@ -295,7 +298,7 @@
     <t>Valeur de Universal ID</t>
   </si>
   <si>
-    <t>1.3.2 (OID SIRENE)</t>
+    <t>1.2.250.1.71.4.2.2</t>
   </si>
   <si>
     <t>author/assignedAuthor/representedOrganization/id@root</t>
@@ -317,7 +320,7 @@
     <t>Type d’identifiant</t>
   </si>
   <si>
-    <t>SIREN</t>
+    <t>IDNST</t>
   </si>
   <si>
     <t>Valeur ne provenant pas de l’en-tête CDA</t>
@@ -326,7 +329,7 @@
     <t>AuthorInstitution.XON10</t>
   </si>
   <si>
-    <t xml:space="preserve">integer {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
+    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
 </t>
   </si>
   <si>
@@ -657,7 +660,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.6875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.5703125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -666,7 +669,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.74609375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
@@ -1048,7 +1051,7 @@
         <v>87</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1122,10 +1125,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1133,10 +1136,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>73</v>
@@ -1151,10 +1154,10 @@
         <v>80</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1205,13 +1208,13 @@
         <v>73</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>73</v>
@@ -1228,10 +1231,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1257,10 +1260,10 @@
         <v>80</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1275,7 +1278,7 @@
         <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U6" t="s" s="2">
         <v>73</v>
@@ -1311,7 +1314,7 @@
         <v>73</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -1326,7 +1329,7 @@
         <v>73</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>84</v>
@@ -1334,10 +1337,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1363,10 +1366,10 @@
         <v>80</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1417,7 +1420,7 @@
         <v>73</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
@@ -1440,10 +1443,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1466,13 +1469,13 @@
         <v>73</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1487,7 +1490,7 @@
         <v>73</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="U8" t="s" s="2">
         <v>73</v>
@@ -1523,7 +1526,7 @@
         <v>73</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1538,7 +1541,7 @@
         <v>73</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>84</v>
@@ -1546,10 +1549,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1572,13 +1575,13 @@
         <v>73</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1629,7 +1632,7 @@
         <v>73</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
@@ -1644,7 +1647,7 @@
         <v>73</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>84</v>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T11:54:16+00:00</t>
+    <t>2025-05-05T14:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -267,7 +267,7 @@
     <t>Groupe Pitié Salpêtrière</t>
   </si>
   <si>
-    <t>author/assignedAuthor/representedOrganization/name</t>
+    <t>author/assignedAuthor/representedOrganization/name (Si l’élément name fait l’objet d’un nullFlavor dans l’en-tête CDA, le composant 1 de la métadonnée authorInstitution doit être vide)</t>
   </si>
   <si>
     <t>NA</t>
@@ -301,7 +301,7 @@
     <t>1.2.250.1.71.4.2.2</t>
   </si>
   <si>
-    <t>author/assignedAuthor/representedOrganization/id@root</t>
+    <t>author/assignedAuthor/representedOrganization/id@root (Si l’élément id fait l’objet d’un nullFlavor dans l’en-tête CDA, les composants 6, 7 et 10 de la métadonnée authorInstitution doivent être vides)</t>
   </si>
   <si>
     <t>AuthorInstitution.XON6.composant3</t>
@@ -685,7 +685,7 @@
     <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="50.30859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="159.33203125" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="14.140625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:17:01+00:00</t>
+    <t>2025-05-05T14:44:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T14:44:38+00:00</t>
+    <t>2025-05-05T16:33:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-05T16:33:44+00:00</t>
+    <t>2025-05-06T07:21:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:21:29+00:00</t>
+    <t>2025-05-06T07:28:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:28:27+00:00</t>
+    <t>2025-05-06T07:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -329,7 +329,7 @@
     <t>AuthorInstitution.XON10</t>
   </si>
   <si>
-    <t xml:space="preserve">string {https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat}
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/fhir/pdsm4dmp/StructureDefinition/StructIdNat
 </t>
   </si>
   <si>
@@ -660,7 +660,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.5703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.55859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T07:38:42+00:00</t>
+    <t>2025-05-06T13:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
+++ b/add-info-dmp/ig/StructureDefinition-AuthorInstitution.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-06T13:57:20+00:00</t>
+    <t>2025-05-19T16:11:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
